--- a/CM_Plan/Design/Database Desgin/Database_v2.0.xlsx
+++ b/CM_Plan/Design/Database Desgin/Database_v2.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>User</t>
   </si>
@@ -131,16 +131,54 @@
     </r>
   </si>
   <si>
+    <t>Create Date</t>
+  </si>
+  <si>
     <t>Start Date</t>
   </si>
   <si>
+    <t>ModifiedDate</t>
+  </si>
+  <si>
     <t>Finish Date</t>
   </si>
   <si>
+    <t>Create By</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF06C934"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(boolean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Role_Project</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Create By</t>
+    <t>Product Phase</t>
+  </si>
+  <si>
+    <t>Phase Num</t>
   </si>
   <si>
     <r>
@@ -163,38 +201,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Status </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF06C934"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(boolean)</t>
-    </r>
-  </si>
-  <si>
-    <t>Role_Project</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Product Phase</t>
-  </si>
-  <si>
-    <t>Phase Num</t>
-  </si>
-  <si>
     <t>Role_Login</t>
   </si>
   <si>
@@ -251,9 +257,6 @@
     <t>Date (Ngày lễ)</t>
   </si>
   <si>
-    <t>Create Date</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -274,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -336,24 +339,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,87 +386,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,28 +446,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -488,7 +491,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,19 +641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,115 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,21 +707,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -736,8 +724,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,6 +771,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -782,155 +803,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,24 +941,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1808,7 +1814,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1826,304 +1832,315 @@
     <col min="11" max="11" width="7.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10"/>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10"/>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="I16" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="E24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="G13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="I16" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G25" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="3" t="s">
-        <v>46</v>
+      <c r="E28" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="3"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="s">
-        <v>47</v>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="s">
-        <v>48</v>
+      <c r="E33" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="s">
-        <v>49</v>
+      <c r="E34" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CM_Plan/Design/Database Desgin/Database_v2.0.xlsx
+++ b/CM_Plan/Design/Database Desgin/Database_v2.0.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+  <si>
+    <t>CRUD - Quang - WLS_AD0101</t>
+  </si>
   <si>
     <t>User</t>
   </si>
@@ -26,10 +29,98 @@
     <t>FullName</t>
   </si>
   <si>
-    <t>User_ProjectRole</t>
+    <t>User_Project_Role</t>
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>CRUD Hieu PM02010201</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF06C934"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(boolean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>CRUD  Tu WLS_AD0102</t>
+  </si>
+  <si>
+    <t>CRUD  Nhi WLS_PM020102</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>User_Role</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Join Date</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Role Login (Admin/User)</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Work Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF06C934"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
   <si>
     <r>
@@ -52,91 +143,6 @@
     </r>
   </si>
   <si>
-    <t>Role ID</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Project ID</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>User_Role</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Join Date</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Role Login (Admin/User)</t>
-  </si>
-  <si>
-    <t>Modified Date</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">IsPM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF06C934"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(boolean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Work Date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF06C934"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
     <t>ModifiedDate</t>
   </si>
   <si>
@@ -277,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -315,20 +321,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,15 +360,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,8 +376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,28 +409,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -422,24 +451,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,40 +482,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,181 +509,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,17 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +732,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +760,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,6 +784,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -770,201 +809,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,7 +1327,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1237932</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>117157</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1333,8 +1337,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="1051560" y="1068070"/>
-          <a:ext cx="4846320" cy="3538220"/>
+          <a:off x="1137285" y="982345"/>
+          <a:ext cx="4674870" cy="3538220"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1460,13 +1464,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>492760</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1298575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1476,8 +1480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693545" y="5248275"/>
-          <a:ext cx="3611245" cy="335280"/>
+          <a:off x="1693545" y="5076825"/>
+          <a:ext cx="3611245" cy="163830"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1811,10 +1815,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1832,315 +1836,321 @@
     <col min="11" max="11" width="7.3" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
+      <c r="A3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="G13" s="5" t="s">
-        <v>24</v>
+      <c r="A13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10"/>
+      <c r="A14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>31</v>
+      <c r="A15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="I16" s="14" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
-        <v>38</v>
+      <c r="A19" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>8</v>
+      <c r="A22" s="1"/>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="E23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="1"/>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>14</v>
+      <c r="G25" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>42</v>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="5" t="s">
-        <v>47</v>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="5"/>
+      <c r="E29" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="14" t="s">
-        <v>48</v>
+      <c r="E30" s="16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="14" t="s">
-        <v>1</v>
+      <c r="E31" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="14"/>
+      <c r="E32" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="5"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
